--- a/data-raw/dati_drupe_campionamenti.xlsx
+++ b/data-raw/dati_drupe_campionamenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OliveHealthR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A523A4-D31B-475A-949B-7B0537488341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3547E-49D0-427B-88E5-8AB1EF898B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03C9B91B-5521-4C0D-8618-2284EE0DFA5E}"/>
+    <workbookView xWindow="0" yWindow="1845" windowWidth="25275" windowHeight="13755" xr2:uid="{03C9B91B-5521-4C0D-8618-2284EE0DFA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="48">
   <si>
     <t>Codice_azienda</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Le olive necessitano di ulteriori 8 giorni di maturazione</t>
+  </si>
+  <si>
+    <t>le foglie sono state raccolte in data 28/10/2021</t>
+  </si>
+  <si>
+    <t>Anno</t>
   </si>
 </sst>
 </file>
@@ -187,12 +193,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,9 +225,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -524,20 +548,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C4669F-18BF-4516-8F95-EA60F7CCDD67}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F53"/>
+      <selection activeCell="C54" sqref="C54:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,963 +572,2082 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="1">
         <v>44109</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="1">
         <v>44109</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>81</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
         <v>44109</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>85</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="1">
         <v>44109</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>85</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="1">
         <v>44109</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>81</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="1">
         <v>44109</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>79</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="1">
         <v>44109</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="1">
         <v>44109</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>79</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1">
         <v>44109</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>75</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="1">
         <v>44109</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>85</v>
       </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="1">
         <v>44110</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>79</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="1">
         <v>44110</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>79</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="1">
         <v>44109</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>81</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="1">
         <v>44109</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>81</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="1">
         <v>44109</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>81</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="1">
         <v>44109</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>81</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="1">
         <v>44109</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>81</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="1">
         <v>44109</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>79</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="1">
         <v>44115</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>85</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="1">
         <v>44115</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>81</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="1">
         <v>44115</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>85</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="1">
         <v>44110</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>81</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="1">
         <v>44115</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>81</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="1">
         <v>44116</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>79</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="1">
         <v>44116</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>79</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="1">
         <v>44116</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>79</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="1">
         <v>44150</v>
       </c>
-      <c r="D28">
-        <v>89</v>
-      </c>
       <c r="E28">
+        <v>89</v>
+      </c>
+      <c r="F28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="1">
         <v>44133</v>
       </c>
-      <c r="D29">
-        <v>89</v>
-      </c>
       <c r="E29">
+        <v>89</v>
+      </c>
+      <c r="F29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="1">
         <v>44133</v>
       </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
       <c r="E30">
+        <v>89</v>
+      </c>
+      <c r="F30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="1">
         <v>44144</v>
       </c>
-      <c r="D31">
-        <v>89</v>
-      </c>
       <c r="E31">
+        <v>89</v>
+      </c>
+      <c r="F31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
+        <v>2020</v>
+      </c>
+      <c r="D32" s="1">
         <v>44144</v>
       </c>
-      <c r="D32">
-        <v>89</v>
-      </c>
       <c r="E32">
+        <v>89</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="1">
         <v>44144</v>
       </c>
-      <c r="D33">
-        <v>89</v>
-      </c>
       <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" s="1">
         <v>44144</v>
       </c>
-      <c r="D34">
-        <v>89</v>
-      </c>
       <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="1">
         <v>44133</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>85</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="1">
         <v>44133</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>85</v>
       </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="1">
         <v>44133</v>
       </c>
-      <c r="D37">
-        <v>89</v>
-      </c>
       <c r="E37">
+        <v>89</v>
+      </c>
+      <c r="F37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="1">
         <v>44146</v>
       </c>
-      <c r="D38">
-        <v>89</v>
-      </c>
       <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39" s="1">
         <v>44146</v>
       </c>
-      <c r="D39">
-        <v>89</v>
-      </c>
       <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="1">
         <v>44139</v>
       </c>
-      <c r="D40">
-        <v>89</v>
-      </c>
       <c r="E40">
+        <v>89</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="1">
         <v>44139</v>
       </c>
-      <c r="D41">
-        <v>89</v>
-      </c>
       <c r="E41">
+        <v>89</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="1">
         <v>44139</v>
       </c>
-      <c r="D42">
-        <v>89</v>
-      </c>
       <c r="E42">
+        <v>89</v>
+      </c>
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="1">
         <v>44139</v>
       </c>
-      <c r="D43">
-        <v>89</v>
-      </c>
       <c r="E43">
+        <v>89</v>
+      </c>
+      <c r="F43">
         <v>6</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="1">
         <v>44144</v>
       </c>
-      <c r="D44">
-        <v>89</v>
-      </c>
       <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="1">
         <v>44151</v>
       </c>
-      <c r="D45">
-        <v>89</v>
-      </c>
       <c r="E45">
+        <v>89</v>
+      </c>
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
+        <v>2020</v>
+      </c>
+      <c r="D46" s="1">
         <v>44138</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>85</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="1">
         <v>44138</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>85</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="1">
         <v>44137</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>85</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="1">
         <v>44138</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>85</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="1">
         <v>44138</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>85</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
+        <v>2020</v>
+      </c>
+      <c r="D51" s="1">
         <v>44137</v>
       </c>
-      <c r="D51">
-        <v>89</v>
-      </c>
       <c r="E51">
+        <v>89</v>
+      </c>
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="1">
         <v>44137</v>
       </c>
-      <c r="D52">
-        <v>89</v>
-      </c>
       <c r="E52">
+        <v>89</v>
+      </c>
+      <c r="F52">
         <v>8</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="1">
         <v>44137</v>
       </c>
-      <c r="D53">
-        <v>89</v>
-      </c>
       <c r="E53">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2021</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44472</v>
+      </c>
+      <c r="E54">
+        <v>81</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>2021</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44472</v>
+      </c>
+      <c r="E55">
+        <v>85</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>2021</v>
+      </c>
+      <c r="D56" s="7">
+        <v>44489</v>
+      </c>
+      <c r="E56" s="6">
+        <v>85</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>2021</v>
+      </c>
+      <c r="D57" s="3">
+        <v>44470</v>
+      </c>
+      <c r="E57" s="2">
+        <v>85</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>2021</v>
+      </c>
+      <c r="D58" s="3">
+        <v>44489</v>
+      </c>
+      <c r="E58" s="2">
+        <v>85</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>2021</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44470</v>
+      </c>
+      <c r="E59">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>2021</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44471</v>
+      </c>
+      <c r="E60">
+        <v>79</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2021</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44496</v>
+      </c>
+      <c r="E61">
+        <v>85</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>2021</v>
+      </c>
+      <c r="D63" s="3">
+        <v>44470</v>
+      </c>
+      <c r="E63" s="2">
+        <v>85</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>2021</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44483</v>
+      </c>
+      <c r="E65">
+        <v>85</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>2021</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E66">
+        <v>79</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>2021</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E67">
+        <v>79</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>2021</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44481</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2021</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44482</v>
+      </c>
+      <c r="E69">
+        <v>89</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>2021</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44482</v>
+      </c>
+      <c r="E71">
+        <v>79</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>2021</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E72">
+        <v>79</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2021</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E73">
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>2021</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44478</v>
+      </c>
+      <c r="E75">
+        <v>79</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>2021</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44477</v>
+      </c>
+      <c r="E76">
+        <v>79</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>2021</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44480</v>
+      </c>
+      <c r="E77">
+        <v>81</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>2021</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>2021</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44546</v>
+      </c>
+      <c r="E80">
+        <v>89</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>2021</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44497</v>
+      </c>
+      <c r="E81">
+        <v>85</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>2021</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44557</v>
+      </c>
+      <c r="E82">
+        <v>89</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>2021</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44552</v>
+      </c>
+      <c r="E83">
+        <v>89</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>2021</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44571</v>
+      </c>
+      <c r="E84">
+        <v>89</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85">
+        <v>2021</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E85">
+        <v>89</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>2021</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44517</v>
+      </c>
+      <c r="E86">
+        <v>89</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <v>2021</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44550</v>
+      </c>
+      <c r="E87">
+        <v>89</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>2021</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E89">
+        <v>89</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>2021</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E91">
+        <v>85</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>2021</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E92">
+        <v>85</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <v>2021</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E93">
+        <v>85</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>2021</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E94">
+        <v>89</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>2021</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E95">
+        <v>89</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
+        <v>2021</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44551</v>
+      </c>
+      <c r="E97">
+        <v>89</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>2021</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44512</v>
+      </c>
+      <c r="E98">
+        <v>89</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99">
+        <v>2021</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44516</v>
+      </c>
+      <c r="E99">
+        <v>89</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <v>2021</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44512</v>
+      </c>
+      <c r="E101">
+        <v>89</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>2021</v>
+      </c>
+      <c r="D102" s="1">
+        <v>44512</v>
+      </c>
+      <c r="E102">
+        <v>89</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103">
+        <v>2021</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44549</v>
+      </c>
+      <c r="E103">
+        <v>89</v>
+      </c>
+      <c r="F103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>2021</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44524</v>
+      </c>
+      <c r="E105">
+        <v>89</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>